--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -670,10 +670,10 @@
         <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
         <v>5.7</v>
@@ -697,31 +697,31 @@
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>23</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="H5" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
         <v>1.74</v>
       </c>
       <c r="H6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I6" t="n">
         <v>21</v>
@@ -1345,19 +1345,19 @@
         <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
         <v>2.96</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
         <v>1.88</v>
@@ -1651,7 +1651,7 @@
         <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
         <v>2.4</v>
@@ -1714,7 +1714,7 @@
         <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.12</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.14</v>
-      </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="K10" t="n">
         <v>13.5</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -703,7 +703,7 @@
         <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
         <v>2.74</v>
@@ -718,7 +718,7 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -760,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
         <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
         <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>1.74</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>21</v>
@@ -1222,7 +1222,7 @@
         <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>9.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
         <v>2.98</v>
@@ -1354,10 +1354,10 @@
         <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
@@ -1510,7 +1510,7 @@
         <v>1.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>1.12</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
@@ -1762,7 +1762,7 @@
         <v>12.5</v>
       </c>
       <c r="K10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
         <v>1.71</v>
@@ -682,10 +682,10 @@
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -700,7 +700,7 @@
         <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.52</v>
@@ -733,7 +733,7 @@
         <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -1084,7 +1084,7 @@
         <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
@@ -1492,7 +1492,7 @@
         <v>2.98</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>60</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
         <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
@@ -715,10 +715,10 @@
         <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -727,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>150</v>
@@ -1084,7 +1084,7 @@
         <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
       </c>
       <c r="K6" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1753,13 +1753,13 @@
         <v>1.12</v>
       </c>
       <c r="H10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="J10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
         <v>13</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
@@ -700,31 +700,31 @@
         <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
         <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
         <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
@@ -739,10 +739,10 @@
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -751,7 +751,7 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -763,13 +763,13 @@
         <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -820,94 +820,94 @@
         <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1084,7 +1084,7 @@
         <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="Q6" t="n">
         <v>1.65</v>
@@ -1702,7 +1702,7 @@
         <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G10" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -676,13 +676,13 @@
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -691,13 +691,13 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
@@ -709,7 +709,7 @@
         <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
@@ -805,13 +805,13 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
         <v>2.58</v>
@@ -850,13 +850,13 @@
         <v>1.56</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="I4" t="n">
         <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1084,100 +1084,100 @@
         <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>1.68</v>
       </c>
       <c r="G9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1627,7 +1627,7 @@
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>65</v>
@@ -1684,16 +1684,16 @@
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -1702,7 +1702,7 @@
         <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -1756,7 +1756,7 @@
         <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="J10" t="n">
         <v>10.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -709,7 +709,7 @@
         <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
@@ -805,13 +805,13 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.58</v>
@@ -820,7 +820,7 @@
         <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.12</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
@@ -844,10 +844,10 @@
         <v>5.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
         <v>1.26</v>
@@ -859,7 +859,7 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -937,43 +937,43 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>2.44</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.89</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1090,34 +1090,34 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
         <v>2.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V5" t="n">
         <v>1.37</v>
@@ -1126,58 +1126,58 @@
         <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
         <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
         <v>2.8</v>
@@ -1360,94 +1360,94 @@
         <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
         <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB9" t="n">
         <v>6.2</v>
@@ -1699,10 +1699,10 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G10" t="n">
         <v>1.14</v>
@@ -1756,7 +1756,7 @@
         <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
         <v>10.5</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q10" t="n">
         <v>1.37</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -676,13 +676,13 @@
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -709,7 +709,7 @@
         <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
@@ -718,61 +718,61 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
         <v>2.58</v>
@@ -820,7 +820,7 @@
         <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M3" t="n">
         <v>1.12</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
@@ -844,13 +844,13 @@
         <v>5.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U3" t="n">
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>1.67</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -973,7 +973,7 @@
         <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
         <v>1.89</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1240,19 +1240,19 @@
         <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
@@ -1345,19 +1345,19 @@
         <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="I7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.3</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1378,22 +1378,22 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
         <v>19</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q8" t="n">
         <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1630,7 +1630,7 @@
         <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -1657,25 +1657,25 @@
         <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y9" t="n">
         <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="AB9" t="n">
         <v>6.2</v>
@@ -1687,37 +1687,37 @@
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN9" t="n">
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
         <v>10.5</v>
@@ -1765,16 +1765,16 @@
         <v>12</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
         <v>2.96</v>
@@ -1783,76 +1783,76 @@
         <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -691,46 +691,46 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
         <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
@@ -805,7 +805,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -817,7 +817,7 @@
         <v>2.58</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
         <v>1.51</v>
@@ -850,7 +850,7 @@
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
         <v>1.67</v>
@@ -940,13 +940,13 @@
         <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>2.76</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
         <v>3.8</v>
@@ -967,13 +967,13 @@
         <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
         <v>1.89</v>
@@ -985,16 +985,16 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,25 +1003,25 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1090,22 +1090,22 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
         <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
@@ -1114,7 +1114,7 @@
         <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
         <v>1.66</v>
@@ -1240,7 +1240,7 @@
         <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
         <v>2.56</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>6.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
         <v>1.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
         <v>1.09</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1618,10 +1618,10 @@
         <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1651,7 +1651,7 @@
         <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
         <v>2.4</v>
@@ -1663,7 +1663,7 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X9" t="n">
         <v>9.6</v>
@@ -1672,7 +1672,7 @@
         <v>17</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
         <v>290</v>
@@ -1687,13 +1687,13 @@
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="G10" t="n">
         <v>1.14</v>
@@ -1756,7 +1756,7 @@
         <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
         <v>10.5</v>
@@ -1771,28 +1771,28 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="T10" t="n">
         <v>2.56</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
         <v>1.02</v>
@@ -1801,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
         <v>100</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1819,34 +1819,34 @@
         <v>30</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>75</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
         <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AN10" t="n">
         <v>3.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -697,22 +697,22 @@
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
         <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
@@ -763,13 +763,13 @@
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>65</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
@@ -850,7 +850,7 @@
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>1.67</v>
@@ -940,7 +940,7 @@
         <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
         <v>2.76</v>
@@ -988,7 +988,7 @@
         <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1237,10 +1237,10 @@
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1375,13 +1375,13 @@
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1480,7 +1480,7 @@
         <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>6.8</v>
@@ -1528,7 +1528,7 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1636,13 +1636,13 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
         <v>2.48</v>
@@ -1657,7 +1657,7 @@
         <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
         <v>1.16</v>
@@ -1675,7 +1675,7 @@
         <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB9" t="n">
         <v>6.2</v>
@@ -1711,13 +1711,13 @@
         <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G10" t="n">
         <v>1.14</v>
@@ -1759,52 +1759,52 @@
         <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="S10" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="V10" t="n">
         <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
         <v>420</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
-        <v>130</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,22 +1828,22 @@
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="AI10" t="n">
         <v>520</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>490</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
@@ -700,13 +700,13 @@
         <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
         <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
         <v>1.74</v>
@@ -751,7 +751,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
         <v>65</v>
@@ -805,7 +805,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
@@ -940,13 +940,13 @@
         <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H4" t="n">
         <v>2.76</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.8</v>
@@ -961,7 +961,7 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -973,19 +973,19 @@
         <v>1.52</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="S4" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
         <v>1.65</v>
@@ -994,7 +994,7 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,25 +1003,25 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1210,7 +1210,7 @@
         <v>1.16</v>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>1.09</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>2.32</v>
@@ -1237,10 +1237,10 @@
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1249,16 +1249,16 @@
         <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>2.66</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I7" t="n">
         <v>3.25</v>
@@ -1375,13 +1375,13 @@
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1483,7 +1483,7 @@
         <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
         <v>1000</v>
@@ -1492,7 +1492,7 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1618,10 +1618,10 @@
         <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1636,7 +1636,7 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O9" t="n">
         <v>1.49</v>
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
         <v>1.68</v>
@@ -1663,7 +1663,7 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X9" t="n">
         <v>9.6</v>
@@ -1753,7 +1753,7 @@
         <v>1.14</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" t="n">
         <v>36</v>
@@ -1777,19 +1777,19 @@
         <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="U10" t="n">
         <v>1.46</v>
@@ -1843,7 +1843,7 @@
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
         <v>490</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -670,19 +670,19 @@
         <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -691,19 +691,19 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
         <v>2.66</v>
@@ -712,19 +712,19 @@
         <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
@@ -733,7 +733,7 @@
         <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -763,13 +763,13 @@
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
         <v>65</v>
@@ -805,7 +805,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
@@ -850,7 +850,7 @@
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
         <v>1.67</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H4" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -970,10 +970,10 @@
         <v>2.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>2.3</v>
@@ -985,10 +985,10 @@
         <v>2.58</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,25 +1003,25 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>2.94</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
         <v>3.7</v>
@@ -1090,31 +1090,31 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P5" t="n">
         <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>6.4</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
         <v>1.66</v>
@@ -1123,22 +1123,22 @@
         <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>7.2</v>
@@ -1147,7 +1147,7 @@
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
         <v>16.5</v>
@@ -1156,16 +1156,16 @@
         <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL5" t="n">
         <v>110</v>
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.16</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G7" t="n">
         <v>2.66</v>
@@ -1378,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1396,10 +1396,10 @@
         <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
         <v>30</v>
@@ -1480,7 +1480,7 @@
         <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="H8" t="n">
         <v>7.2</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
@@ -1510,7 +1510,7 @@
         <v>1.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R8" t="n">
         <v>1.09</v>
@@ -1528,7 +1528,7 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1753,13 +1753,13 @@
         <v>1.14</v>
       </c>
       <c r="H10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I10" t="n">
         <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
         <v>12.5</v>
@@ -1777,22 +1777,22 @@
         <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
         <v>1.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="U10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="V10" t="n">
         <v>1.02</v>
@@ -1801,7 +1801,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
         <v>990</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AG10" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
         <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
         <v>5.8</v>
@@ -691,10 +691,10 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
         <v>2.4</v>
@@ -703,16 +703,16 @@
         <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -724,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
@@ -733,7 +733,7 @@
         <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -766,10 +766,10 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>65</v>
@@ -805,7 +805,7 @@
         <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -814,13 +814,13 @@
         <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
         <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
         <v>1.12</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
@@ -850,10 +850,10 @@
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G4" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H4" t="n">
         <v>2.84</v>
@@ -952,7 +952,7 @@
         <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -964,7 +964,7 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
         <v>2.52</v>
@@ -973,22 +973,22 @@
         <v>1.53</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
         <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V4" t="n">
         <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.94</v>
+        <v>2.64</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
         <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="X5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB5" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
         <v>5.1</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>4.2</v>
@@ -1237,43 +1237,43 @@
         <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
         <v>12.5</v>
@@ -1285,7 +1285,7 @@
         <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
@@ -1303,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
         <v>2.66</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1399,13 +1399,13 @@
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1423,10 +1423,10 @@
         <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1435,7 +1435,7 @@
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL7" t="n">
         <v>65</v>
@@ -1447,7 +1447,7 @@
         <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
         <v>7.2</v>
@@ -1489,34 +1489,34 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.09</v>
       </c>
       <c r="S8" t="n">
-        <v>2.96</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1528,7 +1528,7 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1642,16 +1642,16 @@
         <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
         <v>2.38</v>
@@ -1660,7 +1660,7 @@
         <v>1.68</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
         <v>2.44</v>
@@ -1684,7 +1684,7 @@
         <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>150</v>
@@ -1702,7 +1702,7 @@
         <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
@@ -1753,13 +1753,13 @@
         <v>1.14</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10" t="n">
         <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K10" t="n">
         <v>12.5</v>
@@ -1777,25 +1777,25 @@
         <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="Q10" t="n">
         <v>1.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="U10" t="n">
         <v>1.47</v>
       </c>
       <c r="V10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W10" t="n">
         <v>8.199999999999999</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
         <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
         <v>5.8</v>
@@ -706,13 +706,13 @@
         <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -769,7 +769,7 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
         <v>65</v>
@@ -811,13 +811,13 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.52</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
@@ -850,7 +850,7 @@
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
         <v>1.68</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3.85</v>
@@ -973,22 +973,22 @@
         <v>1.53</v>
       </c>
       <c r="R4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="G5" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
@@ -1099,13 +1099,13 @@
         <v>2.28</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P5" t="n">
         <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
@@ -1114,25 +1114,25 @@
         <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U5" t="n">
         <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>110</v>
@@ -1150,7 +1150,7 @@
         <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
         <v>15.5</v>
@@ -1210,7 +1210,7 @@
         <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
         <v>6.4</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>4.2</v>
@@ -1246,16 +1246,16 @@
         <v>1.43</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
         <v>2.6</v>
@@ -1279,7 +1279,7 @@
         <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
         <v>120</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1381,7 +1381,7 @@
         <v>1.1</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.1</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.09</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1525,10 +1525,10 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,7 +1615,7 @@
         <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1636,16 +1636,16 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
@@ -1657,13 +1657,13 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
         <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X9" t="n">
         <v>9.6</v>
@@ -1708,13 +1708,13 @@
         <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO9" t="n">
         <v>270</v>
@@ -1753,58 +1753,58 @@
         <v>1.14</v>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
         <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="T10" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="U10" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="V10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="n">
         <v>420</v>
@@ -1816,7 +1816,7 @@
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AD10" t="n">
         <v>990</v>
@@ -1828,13 +1828,13 @@
         <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
         <v>990</v>
       </c>
       <c r="AI10" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AJ10" t="n">
         <v>7.6</v>
@@ -1843,7 +1843,7 @@
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
         <v>490</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
         <v>1.65</v>
@@ -700,7 +700,7 @@
         <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
         <v>1.55</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
         <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,28 +961,28 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="T4" t="n">
         <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="V4" t="n">
         <v>1.5</v>
@@ -991,10 +991,10 @@
         <v>1.65</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>14</v>
@@ -1021,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G5" t="n">
         <v>2.74</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.66</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
@@ -1120,7 +1120,7 @@
         <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
         <v>1.57</v>
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
         <v>110</v>
@@ -1144,10 +1144,10 @@
         <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
         <v>16.5</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
         <v>140</v>
@@ -1216,7 +1216,7 @@
         <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>4.2</v>
@@ -1225,7 +1225,7 @@
         <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1243,16 +1243,16 @@
         <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
         <v>1.14</v>
@@ -1285,7 +1285,7 @@
         <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G7" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
@@ -1363,10 +1363,10 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1378,76 +1378,76 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG7" t="n">
         <v>15</v>
       </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL7" t="n">
         <v>55</v>
       </c>
-      <c r="AK7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G8" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
         <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.56</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1615,13 +1615,13 @@
         <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1636,13 +1636,13 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
         <v>2.44</v>
@@ -1657,13 +1657,13 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X9" t="n">
         <v>9.6</v>
@@ -1699,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
         <v>15.5</v>
@@ -1717,7 +1717,7 @@
         <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="G10" t="n">
         <v>1.14</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I10" t="n">
         <v>36</v>
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -1777,10 +1777,10 @@
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R10" t="n">
         <v>1.79</v>
@@ -1798,7 +1798,7 @@
         <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
@@ -1807,7 +1807,7 @@
         <v>110</v>
       </c>
       <c r="Z10" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
         <v>990</v>
@@ -1834,7 +1834,7 @@
         <v>990</v>
       </c>
       <c r="AI10" t="n">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="AJ10" t="n">
         <v>7.6</v>
@@ -1849,7 +1849,7 @@
         <v>490</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
         <v>1.65</v>
@@ -679,7 +679,7 @@
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -706,7 +706,7 @@
         <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
@@ -748,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
         <v>19.5</v>
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
         <v>2.62</v>
@@ -850,7 +850,7 @@
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>1.68</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="I4" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -973,7 +973,7 @@
         <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S4" t="n">
         <v>2.14</v>
@@ -982,13 +982,13 @@
         <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
         <v>36</v>
@@ -1009,7 +1009,7 @@
         <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="AB6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG6" t="n">
         <v>11</v>
       </c>
-      <c r="AC6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
         <v>120</v>
       </c>
-      <c r="AF6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="H7" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I7" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
@@ -1363,43 +1363,43 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
         <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
         <v>25</v>
@@ -1408,46 +1408,46 @@
         <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>21</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1477,34 +1477,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.56</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
         <v>2.18</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P8" t="n">
         <v>1.39</v>
@@ -1513,22 +1513,22 @@
         <v>2.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="T8" t="n">
         <v>2.46</v>
       </c>
       <c r="U8" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1618,7 +1618,7 @@
         <v>1.69</v>
       </c>
       <c r="H9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>7.2</v>
@@ -1630,13 +1630,13 @@
         <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O9" t="n">
         <v>1.49</v>
@@ -1648,7 +1648,7 @@
         <v>2.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
         <v>4.9</v>
@@ -1750,16 +1750,16 @@
         <v>1.12</v>
       </c>
       <c r="G10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H10" t="n">
         <v>34</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K10" t="n">
         <v>12</v>
@@ -1792,13 +1792,13 @@
         <v>2.7</v>
       </c>
       <c r="U10" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V10" t="n">
         <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
         <v>990</v>
@@ -1828,7 +1828,7 @@
         <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
         <v>990</v>
@@ -1840,7 +1840,7 @@
         <v>7.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>70</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
         <v>1.65</v>
@@ -685,7 +685,7 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -697,7 +697,7 @@
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
@@ -706,7 +706,7 @@
         <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
@@ -766,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
         <v>7.4</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.34</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>3.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.58</v>
+        <v>1.11</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>2.26</v>
       </c>
       <c r="S3" t="n">
-        <v>5.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,78 +923,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
         <v>2.42</v>
       </c>
       <c r="H4" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.3</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>2.34</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>2.74</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>2.82</v>
       </c>
       <c r="R4" t="n">
-        <v>1.71</v>
+        <v>1.15</v>
       </c>
       <c r="S4" t="n">
-        <v>2.14</v>
+        <v>5.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>2.84</v>
+        <v>1.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
         <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,25 +1003,25 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,16 +1039,16 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.15</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.66</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.28</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>11</v>
       </c>
-      <c r="Z5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>70</v>
-      </c>
       <c r="AO5" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.41</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X6" t="n">
         <v>7.6</v>
       </c>
-      <c r="I6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26</v>
-      </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA6" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.78</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.98</v>
+        <v>9.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>16</v>
       </c>
-      <c r="Y7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>40</v>
-      </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1.66</v>
+        <v>2.86</v>
       </c>
       <c r="H8" t="n">
-        <v>8.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.78</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.46</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.34</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.52</v>
       </c>
       <c r="W8" t="n">
-        <v>2.48</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,260 +1598,395 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.67</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.49</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2025-12-29</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>AVS Futebol SAD</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>1.12</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>1.13</v>
       </c>
-      <c r="H10" t="n">
-        <v>34</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H11" t="n">
+        <v>32</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
         <v>11.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>12</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.23</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>1.02</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>7</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>1.14</v>
       </c>
-      <c r="P10" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.79</v>
       </c>
-      <c r="S10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="S11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.7</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="U11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.02</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W11" t="n">
         <v>8.6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X11" t="n">
         <v>990</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y11" t="n">
         <v>110</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z11" t="n">
         <v>410</v>
       </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC11" t="n">
         <v>990</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD11" t="n">
         <v>990</v>
       </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
         <v>7.4</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG11" t="n">
         <v>16</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH11" t="n">
         <v>990</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI11" t="n">
         <v>530</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ11" t="n">
         <v>7.6</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK11" t="n">
         <v>16</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL11" t="n">
         <v>70</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM11" t="n">
         <v>490</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN11" t="n">
         <v>3.05</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO11" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
         <v>1.65</v>
@@ -724,10 +724,10 @@
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
         <v>150</v>
@@ -742,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -766,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
         <v>7.4</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="J3" t="n">
         <v>10</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -982,10 +982,10 @@
         <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
         <v>1.7</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
         <v>2.38</v>
@@ -1087,7 +1087,7 @@
         <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1105,19 +1105,19 @@
         <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
         <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V5" t="n">
         <v>1.46</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
         <v>16</v>
@@ -1213,7 +1213,7 @@
         <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
         <v>3.9</v>
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="n">
         <v>1.15</v>
@@ -1252,7 +1252,7 @@
         <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
         <v>1.36</v>
@@ -1264,7 +1264,7 @@
         <v>7.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>28</v>
@@ -1348,7 +1348,7 @@
         <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I7" t="n">
         <v>9.6</v>
@@ -1375,10 +1375,10 @@
         <v>2.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
         <v>2.72</v>
@@ -1480,19 +1480,19 @@
         <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
         <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1615,7 +1615,7 @@
         <v>1.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>8.4</v>
@@ -1627,7 +1627,7 @@
         <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.56</v>
@@ -1645,7 +1645,7 @@
         <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="R9" t="n">
         <v>1.13</v>
@@ -1663,7 +1663,7 @@
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
         <v>3.75</v>
@@ -1765,79 +1765,79 @@
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
         <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
         <v>4.9</v>
       </c>
       <c r="T10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W10" t="n">
         <v>2.38</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.44</v>
       </c>
       <c r="X10" t="n">
         <v>9.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
         <v>22</v>
@@ -1846,13 +1846,13 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>32</v>
       </c>
       <c r="I11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J11" t="n">
         <v>11.5</v>
@@ -1912,22 +1912,22 @@
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
         <v>1.79</v>
       </c>
       <c r="S11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T11" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
@@ -1939,7 +1939,7 @@
         <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="Z11" t="n">
         <v>410</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
         <v>990</v>
@@ -1972,7 +1972,7 @@
         <v>530</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
@@ -1981,10 +1981,10 @@
         <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -688,10 +688,10 @@
         <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
@@ -703,7 +703,7 @@
         <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
         <v>2.72</v>
@@ -715,7 +715,7 @@
         <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
         <v>2.52</v>
@@ -730,7 +730,7 @@
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
@@ -739,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>70</v>
@@ -751,7 +751,7 @@
         <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>65</v>
@@ -766,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
         <v>7.4</v>
@@ -805,7 +805,7 @@
         <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
         <v>1.04</v>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>32</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,19 +826,19 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>
@@ -988,13 +988,13 @@
         <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1105,19 +1105,19 @@
         <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V5" t="n">
         <v>1.46</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1222,10 +1222,10 @@
         <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="M6" t="n">
         <v>1.15</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H7" t="n">
         <v>7.8</v>
@@ -1354,10 +1354,10 @@
         <v>9.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
@@ -1384,7 +1384,7 @@
         <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1393,7 +1393,7 @@
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X7" t="n">
         <v>25</v>
@@ -1480,13 +1480,13 @@
         <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1513,7 +1513,7 @@
         <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
         <v>3.5</v>
@@ -1528,10 +1528,10 @@
         <v>1.52</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
         <v>13.5</v>
@@ -1615,19 +1615,19 @@
         <v>1.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
         <v>8.4</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>1.56</v>
@@ -1636,34 +1636,34 @@
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="U9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V9" t="n">
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.5</v>
+        <v>990</v>
       </c>
       <c r="AC9" t="n">
         <v>1000</v>
@@ -1771,7 +1771,7 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O10" t="n">
         <v>1.48</v>
@@ -1801,7 +1801,7 @@
         <v>2.38</v>
       </c>
       <c r="X10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>16.5</v>
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>140</v>
@@ -1888,16 +1888,16 @@
         <v>1.13</v>
       </c>
       <c r="H11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J11" t="n">
         <v>11.5</v>
       </c>
       <c r="K11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L11" t="n">
         <v>1.23</v>
@@ -1906,28 +1906,28 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="S11" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="U11" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
@@ -1936,22 +1936,22 @@
         <v>8.6</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
         <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>990</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>
@@ -1963,7 +1963,7 @@
         <v>7.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>990</v>
@@ -1975,16 +1975,16 @@
         <v>7.4</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
         <v>1.66</v>
@@ -676,7 +676,7 @@
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -685,10 +685,10 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>5.1</v>
@@ -706,7 +706,7 @@
         <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
@@ -718,7 +718,7 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -730,7 +730,7 @@
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
         <v>10.5</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>120</v>
@@ -811,7 +811,7 @@
         <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="J3" t="n">
         <v>10</v>
@@ -820,13 +820,13 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.04</v>
@@ -838,10 +838,10 @@
         <v>1.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.74</v>
+        <v>2.34</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
@@ -955,7 +955,7 @@
         <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
@@ -1075,10 +1075,10 @@
         <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
         <v>3.15</v>
@@ -1105,13 +1105,13 @@
         <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
         <v>1.72</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1150,13 +1150,13 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>16</v>
@@ -1216,28 +1216,28 @@
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
         <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
         <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.66</v>
       </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
@@ -1252,13 +1252,13 @@
         <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
         <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>7.6</v>
@@ -1279,7 +1279,7 @@
         <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>75</v>
@@ -1342,100 +1342,100 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="G7" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="H7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.89</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
         <v>150</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1501,7 +1501,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.35</v>
@@ -1510,19 +1510,19 @@
         <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
         <v>1.52</v>
@@ -1531,10 +1531,10 @@
         <v>1.52</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>25</v>
@@ -1555,13 +1555,13 @@
         <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
@@ -1615,10 +1615,10 @@
         <v>1.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
         <v>11.5</v>
@@ -1627,7 +1627,7 @@
         <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.56</v>
@@ -1639,7 +1639,7 @@
         <v>2.26</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="P9" t="n">
         <v>1.41</v>
@@ -1663,7 +1663,7 @@
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.71</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.72</v>
       </c>
       <c r="H10" t="n">
         <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>3.75</v>
@@ -1765,7 +1765,7 @@
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1774,31 +1774,31 @@
         <v>2.96</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
         <v>4.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U10" t="n">
         <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X10" t="n">
         <v>9.800000000000001</v>
@@ -1810,16 +1810,16 @@
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
         <v>140</v>
@@ -1834,7 +1834,7 @@
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
         <v>16</v>
@@ -1846,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
         <v>15</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="G11" t="n">
         <v>1.13</v>
@@ -1891,13 +1891,13 @@
         <v>36</v>
       </c>
       <c r="I11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J11" t="n">
         <v>11.5</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.23</v>
@@ -1912,22 +1912,22 @@
         <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
         <v>2.8</v>
       </c>
       <c r="U11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
@@ -1936,7 +1936,7 @@
         <v>8.6</v>
       </c>
       <c r="X11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y11" t="n">
         <v>990</v>
@@ -1951,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -676,7 +676,7 @@
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.6</v>
@@ -691,52 +691,52 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC2" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
@@ -745,7 +745,7 @@
         <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
@@ -754,25 +754,25 @@
         <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
         <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="K3" t="n">
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -838,16 +838,16 @@
         <v>1.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.34</v>
+        <v>2.72</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
         <v>7.6</v>
@@ -856,7 +856,7 @@
         <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
         <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -991,10 +991,10 @@
         <v>1.71</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1009,16 +1009,16 @@
         <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1075,19 +1075,19 @@
         <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="I5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1105,40 +1105,40 @@
         <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S5" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V5" t="n">
         <v>1.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1159,22 +1159,22 @@
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
         <v>16</v>
@@ -1210,22 +1210,22 @@
         <v>2.52</v>
       </c>
       <c r="G6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.74</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.72</v>
       </c>
       <c r="K6" t="n">
         <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="M6" t="n">
         <v>1.15</v>
@@ -1276,13 +1276,13 @@
         <v>7.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
         <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AF6" t="n">
         <v>16.5</v>
@@ -1351,37 +1351,37 @@
         <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
         <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T7" t="n">
         <v>1.93</v>
@@ -1393,28 +1393,28 @@
         <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>65</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="n">
         <v>150</v>
@@ -1426,7 +1426,7 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="n">
         <v>130</v>
@@ -1435,10 +1435,10 @@
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
@@ -1480,10 +1480,10 @@
         <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
         <v>2.9</v>
@@ -1492,7 +1492,7 @@
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1525,16 +1525,16 @@
         <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
         <v>25</v>
@@ -1576,10 +1576,10 @@
         <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
         <v>36</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
@@ -1630,46 +1630,46 @@
         <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="P9" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="R9" t="n">
         <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="U9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>990</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1693,7 +1693,7 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1753,16 +1753,16 @@
         <v>1.71</v>
       </c>
       <c r="H10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.55</v>
@@ -1771,25 +1771,25 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
         <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
         <v>4.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U10" t="n">
         <v>1.7</v>
@@ -1801,10 +1801,10 @@
         <v>2.4</v>
       </c>
       <c r="X10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
@@ -1825,7 +1825,7 @@
         <v>140</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -1846,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
         <v>15</v>
@@ -1885,13 +1885,13 @@
         <v>1.11</v>
       </c>
       <c r="G11" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
         <v>11.5</v>
@@ -1906,34 +1906,34 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
       </c>
       <c r="W11" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X11" t="n">
         <v>46</v>
@@ -1942,16 +1942,16 @@
         <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>
@@ -1963,28 +1963,28 @@
         <v>7.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>990</v>
       </c>
       <c r="AI11" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.64</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
         <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>140</v>
@@ -736,13 +736,13 @@
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
         <v>11.5</v>
@@ -757,7 +757,7 @@
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
@@ -769,10 +769,10 @@
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,82 +802,82 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="I3" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="J3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="R3" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
@@ -940,22 +940,22 @@
         <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
         <v>2.84</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
@@ -976,19 +976,19 @@
         <v>1.15</v>
       </c>
       <c r="S4" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
         <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
         <v>14</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
@@ -1105,25 +1105,25 @@
         <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
         <v>80</v>
@@ -1156,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI5" t="n">
         <v>80</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G6" t="n">
         <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
         <v>3.05</v>
@@ -1345,7 +1345,7 @@
         <v>1.45</v>
       </c>
       <c r="G7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>7.6</v>
@@ -1354,10 +1354,10 @@
         <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
@@ -1384,7 +1384,7 @@
         <v>2.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
         <v>1.89</v>
@@ -1435,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>85</v>
@@ -1480,10 +1480,10 @@
         <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I8" t="n">
         <v>2.9</v>
@@ -1492,7 +1492,7 @@
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1528,19 +1528,19 @@
         <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AB8" t="n">
         <v>13.5</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="H9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.57</v>
@@ -1660,10 +1660,10 @@
         <v>1.44</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1681,7 +1681,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="n">
         <v>36</v>
@@ -1705,7 +1705,7 @@
         <v>180</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1759,10 +1759,10 @@
         <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.55</v>
@@ -1771,22 +1771,22 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
         <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
         <v>2.36</v>
@@ -1798,10 +1798,10 @@
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
@@ -1819,7 +1819,7 @@
         <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
         <v>140</v>
@@ -1846,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
         <v>15</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.11</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.12</v>
       </c>
       <c r="H11" t="n">
         <v>46</v>
@@ -1894,13 +1894,13 @@
         <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="K11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1912,19 +1912,19 @@
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="n">
         <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="U11" t="n">
         <v>1.51</v>
@@ -1933,7 +1933,7 @@
         <v>1.02</v>
       </c>
       <c r="W11" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>46</v>
@@ -1942,7 +1942,7 @@
         <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>
@@ -1963,7 +1963,7 @@
         <v>7.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH11" t="n">
         <v>990</v>
@@ -1984,9 +1984,144 @@
         <v>590</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Friendly Matches</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tlaxcala F.C</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K12" t="n">
+        <v>950</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
         <v>1.64</v>
@@ -676,82 +676,82 @@
         <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.21</v>
       </c>
       <c r="W2" t="n">
         <v>2.56</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
         <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>60</v>
@@ -763,13 +763,13 @@
         <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>60</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="I3" t="n">
         <v>1.09</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -832,22 +832,22 @@
         <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="R3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
         <v>12</v>
@@ -856,25 +856,25 @@
         <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Y3" t="n">
         <v>36</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="4">
@@ -940,37 +940,37 @@
         <v>2.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="R4" t="n">
         <v>1.15</v>
@@ -979,19 +979,19 @@
         <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="Y4" t="n">
         <v>20</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
         <v>7.6</v>
@@ -1075,10 +1075,10 @@
         <v>2.24</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
         <v>3.2</v>
@@ -1090,7 +1090,7 @@
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1102,7 +1102,7 @@
         <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q5" t="n">
         <v>1.46</v>
@@ -1111,19 +1111,19 @@
         <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="V5" t="n">
         <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
         <v>80</v>
@@ -1219,7 +1219,7 @@
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K6" t="n">
         <v>3.05</v>
@@ -1231,13 +1231,13 @@
         <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O6" t="n">
         <v>1.66</v>
       </c>
       <c r="P6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
         <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I7" t="n">
         <v>9</v>
@@ -1360,16 +1360,16 @@
         <v>5.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>2.08</v>
@@ -1384,10 +1384,10 @@
         <v>2.9</v>
       </c>
       <c r="T7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.9</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.89</v>
       </c>
       <c r="V7" t="n">
         <v>1.12</v>
@@ -1396,13 +1396,13 @@
         <v>2.96</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
         <v>300</v>
@@ -1414,40 +1414,40 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
         <v>7.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
         <v>2.9</v>
@@ -1522,13 +1522,13 @@
         <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.53</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.52</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
@@ -1582,7 +1582,7 @@
         <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
         <v>9.4</v>
@@ -1633,31 +1633,31 @@
         <v>1.57</v>
       </c>
       <c r="M9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.15</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.14</v>
       </c>
       <c r="S9" t="n">
         <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="U9" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="V9" t="n">
         <v>1.1</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
         <v>40</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>36</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.7</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.71</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -1759,10 +1759,10 @@
         <v>7.2</v>
       </c>
       <c r="J10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.55</v>
@@ -1786,13 +1786,13 @@
         <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T10" t="n">
         <v>2.36</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
@@ -1801,7 +1801,7 @@
         <v>2.42</v>
       </c>
       <c r="X10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
@@ -1810,7 +1810,7 @@
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB10" t="n">
         <v>6.2</v>
@@ -1828,13 +1828,13 @@
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
         <v>16</v>
@@ -1846,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
         <v>15</v>
@@ -1894,10 +1894,10 @@
         <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1912,10 +1912,10 @@
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R11" t="n">
         <v>1.81</v>
@@ -1927,7 +1927,7 @@
         <v>2.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
@@ -1942,13 +1942,13 @@
         <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
         <v>990</v>
@@ -1966,7 +1966,7 @@
         <v>17.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>590</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,16 +2020,16 @@
         <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H12" t="n">
         <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
         <v>950</v>
@@ -2056,13 +2056,13 @@
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.01</v>
@@ -2071,10 +2071,10 @@
         <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -670,7 +670,7 @@
         <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
@@ -679,61 +679,61 @@
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -742,16 +742,16 @@
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>60</v>
@@ -760,16 +760,16 @@
         <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>60</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
         <v>1.08</v>
       </c>
       <c r="I3" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="K3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -832,31 +832,31 @@
         <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="R3" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W3" t="n">
         <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>36</v>
@@ -865,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -937,76 +937,76 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
         <v>2.44</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
         <v>60</v>
@@ -1015,25 +1015,25 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK4" t="n">
         <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,73 +1072,73 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
         <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
         <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="V5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1150,34 +1150,34 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="K6" t="n">
         <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O6" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
         <v>6.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,94 +1342,94 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
         <v>19.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
         <v>13.5</v>
@@ -1441,13 +1441,13 @@
         <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
         <v>7.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
         <v>2.9</v>
@@ -1495,31 +1495,31 @@
         <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>2.14</v>
@@ -1540,7 +1540,7 @@
         <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
         <v>13.5</v>
@@ -1552,7 +1552,7 @@
         <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
         <v>24</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1618,10 +1618,10 @@
         <v>1.63</v>
       </c>
       <c r="H9" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
@@ -1630,31 +1630,31 @@
         <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="U9" t="n">
         <v>1.46</v>
@@ -1669,7 +1669,7 @@
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1693,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1753,16 +1753,16 @@
         <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.55</v>
@@ -1771,16 +1771,16 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
@@ -1789,28 +1789,28 @@
         <v>4.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U10" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB10" t="n">
         <v>6.2</v>
@@ -1834,10 +1834,10 @@
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK10" t="n">
         <v>22</v>
@@ -1846,13 +1846,13 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
         <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="G11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="K11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1912,46 +1912,46 @@
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q11" t="n">
         <v>1.43</v>
       </c>
       <c r="R11" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
         <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>
@@ -1960,13 +1960,13 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1975,16 +1975,16 @@
         <v>7.2</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -691,88 +691,88 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF2" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="J3" t="n">
         <v>14.5</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="Q3" t="n">
         <v>1.14</v>
       </c>
       <c r="R3" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.37</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V3" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -871,10 +871,10 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -886,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
@@ -937,43 +937,43 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.76</v>
       </c>
       <c r="K4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
         <v>7.6</v>
@@ -991,43 +991,43 @@
         <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AK4" t="n">
         <v>95</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="H5" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="T5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.5</v>
       </c>
-      <c r="U5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X5" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>3.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="K6" t="n">
         <v>3.05</v>
@@ -1237,7 +1237,7 @@
         <v>1.68</v>
       </c>
       <c r="P6" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
         <v>3.1</v>
@@ -1252,16 +1252,16 @@
         <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1270,7 +1270,7 @@
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
@@ -1345,19 +1345,19 @@
         <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.35</v>
@@ -1369,49 +1369,49 @@
         <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AA7" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AB7" t="n">
         <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
         <v>34</v>
@@ -1423,31 +1423,31 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.9</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1501,16 +1501,16 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
         <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1519,13 +1519,13 @@
         <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
         <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
         <v>1.53</v>
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
@@ -1552,7 +1552,7 @@
         <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="n">
         <v>24</v>
@@ -1561,7 +1561,7 @@
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
@@ -1582,7 +1582,7 @@
         <v>70</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>11.5</v>
@@ -1627,49 +1627,49 @@
         <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="O9" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="P9" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
         <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="V9" t="n">
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
         <v>36</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
         <v>7.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>7.4</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1774,34 +1774,34 @@
         <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T10" t="n">
         <v>2.32</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
         <v>17.5</v>
@@ -1810,7 +1810,7 @@
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AB10" t="n">
         <v>6.2</v>
@@ -1819,10 +1819,10 @@
         <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="n">
         <v>8</v>
@@ -1840,16 +1840,16 @@
         <v>15.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>220</v>
@@ -1888,7 +1888,7 @@
         <v>1.13</v>
       </c>
       <c r="H11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1915,19 +1915,19 @@
         <v>3.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
@@ -1936,22 +1936,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Y11" t="n">
         <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>
@@ -1963,10 +1963,10 @@
         <v>7.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1975,16 +1975,16 @@
         <v>7.2</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2038,19 +2038,19 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
         <v>1.24</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P12" t="n">
         <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.78</v>
+        <v>100</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AO2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="J3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.11</v>
@@ -826,58 +826,58 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="Q3" t="n">
         <v>1.14</v>
       </c>
       <c r="R3" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.03</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="4">
@@ -937,88 +937,88 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="G4" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.85</v>
       </c>
-      <c r="I4" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J4" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="M4" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="O4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>1.56</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="X4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="n">
         <v>6.6</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>65</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
         <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="T5" t="n">
         <v>1.51</v>
       </c>
       <c r="U5" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="X5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="n">
         <v>25</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB5" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17</v>
-      </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="G6" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="K6" t="n">
         <v>3.05</v>
@@ -1231,7 +1231,7 @@
         <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O6" t="n">
         <v>1.68</v>
@@ -1255,10 +1255,10 @@
         <v>1.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1372,43 +1372,43 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
         <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="X7" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
         <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AA7" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
         <v>11.5</v>
@@ -1417,19 +1417,19 @@
         <v>34</v>
       </c>
       <c r="AE7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI7" t="n">
         <v>140</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>130</v>
       </c>
       <c r="AJ7" t="n">
         <v>12.5</v>
@@ -1438,16 +1438,16 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G8" t="n">
         <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1513,7 +1513,7 @@
         <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
         <v>3.7</v>
@@ -1525,10 +1525,10 @@
         <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
@@ -1549,7 +1549,7 @@
         <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
         <v>95</v>
@@ -1561,7 +1561,7 @@
         <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="M9" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="O9" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="U9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V9" t="n">
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
         <v>140</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
         <v>1.68</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>1.54</v>
@@ -1771,58 +1771,58 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U10" t="n">
         <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB10" t="n">
         <v>6.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="n">
         <v>8</v>
@@ -1831,7 +1831,7 @@
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
         <v>150</v>
@@ -1846,13 +1846,13 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
         <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
@@ -1888,46 +1888,46 @@
         <v>1.13</v>
       </c>
       <c r="H11" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I11" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
         <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
@@ -1936,22 +1936,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
         <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>
@@ -1960,31 +1960,31 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG11" t="n">
         <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,105 +653,105 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.01</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.01</v>
       </c>
-      <c r="H2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -763,22 +763,22 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.01</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>2.44</v>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>2.56</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>1.11</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>2.94</v>
       </c>
       <c r="K3" t="n">
-        <v>15.5</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.11</v>
+        <v>1.71</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>2.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="P3" t="n">
-        <v>6.2</v>
+        <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.14</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>3.15</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>7.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>8.4</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
-        <v>230</v>
+        <v>7.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.92</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.72</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S4" t="n">
-        <v>7.2</v>
+        <v>2.34</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="U4" t="n">
-        <v>1.56</v>
+        <v>2.72</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="X4" t="n">
-        <v>7.6</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>15</v>
       </c>
-      <c r="AH4" t="n">
-        <v>65</v>
-      </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.86</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>2.94</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S5" t="n">
         <v>6.8</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.14</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.86</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W5" t="n">
-        <v>1.89</v>
+        <v>1.46</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.94</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6.4</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>3.15</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>2.64</v>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>8.800000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>2.94</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.77</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>150</v>
       </c>
-      <c r="AF7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK7" t="n">
         <v>28</v>
       </c>
-      <c r="AI7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>190</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>1.51</v>
       </c>
       <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.66</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="R8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.08</v>
       </c>
-      <c r="N8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.52</v>
+        <v>2.96</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="Y8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>6.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>490</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W9" t="n">
         <v>2.48</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.8</v>
-      </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>17.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.66</v>
+        <v>1.11</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68</v>
+        <v>1.12</v>
       </c>
       <c r="H10" t="n">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>13.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>3.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.42</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>4.7</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>2.36</v>
+        <v>2.84</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>2.48</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>9.800000000000001</v>
+        <v>50</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>470</v>
       </c>
       <c r="AA10" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>30</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>2.82</v>
       </c>
       <c r="AO10" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,90 +1868,90 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Tlaxcala F.C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>1.13</v>
+        <v>600</v>
       </c>
       <c r="H11" t="n">
-        <v>40</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>870</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>1.24</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>1.05</v>
       </c>
       <c r="T11" t="n">
-        <v>2.8</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.02</v>
       </c>
       <c r="W11" t="n">
-        <v>9.199999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="X11" t="n">
-        <v>48</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
         <v>990</v>
       </c>
       <c r="Z11" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AC11" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>
@@ -1960,168 +1960,33 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tlaxcala F.C</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G12" t="n">
-        <v>610</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I12" t="n">
-        <v>870</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K12" t="n">
-        <v>950</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X12" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO12" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="H2" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="I2" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>12</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="N2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.03</v>
-      </c>
       <c r="X2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>540</v>
+      </c>
+      <c r="AI2" t="n">
         <v>990</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>1.71</v>
@@ -826,76 +826,76 @@
         <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
         <v>7.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="X3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>34</v>
       </c>
-      <c r="AI3" t="n">
-        <v>420</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>48</v>
-      </c>
       <c r="AK3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
         <v>190</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
         <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -967,25 +967,25 @@
         <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R4" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S4" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
         <v>1.92</v>
@@ -994,7 +994,7 @@
         <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
@@ -1003,46 +1003,46 @@
         <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI4" t="n">
         <v>36</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>190</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
         <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.94</v>
@@ -1093,34 +1093,34 @@
         <v>1.71</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
         <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W5" t="n">
         <v>1.46</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA6" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AB6" t="n">
         <v>9</v>
       </c>
       <c r="AC6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -1342,70 +1342,70 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q7" t="n">
         <v>2.04</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
         <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>11.5</v>
@@ -1414,40 +1414,40 @@
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
         <v>95</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1480,19 +1480,19 @@
         <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.63</v>
@@ -1528,25 +1528,25 @@
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="X8" t="n">
         <v>9.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>60</v>
@@ -1564,22 +1564,22 @@
         <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1621,7 +1621,7 @@
         <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1639,7 +1639,7 @@
         <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
         <v>1.69</v>
@@ -1648,16 +1648,16 @@
         <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
         <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
         <v>1.15</v>
@@ -1669,7 +1669,7 @@
         <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>55</v>
@@ -1678,7 +1678,7 @@
         <v>230</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1693,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="n">
         <v>15.5</v>
@@ -1717,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>34</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
         <v>13.5</v>
@@ -1774,10 +1774,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
         <v>1.42</v>
@@ -1786,10 +1786,10 @@
         <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="U10" t="n">
         <v>1.5</v>
@@ -1798,16 +1798,16 @@
         <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>50</v>
       </c>
       <c r="Y10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,40 +1816,40 @@
         <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,82 +1882,82 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>5.6</v>
       </c>
       <c r="G11" t="n">
-        <v>600</v>
+        <v>9.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="I11" t="n">
-        <v>870</v>
+        <v>1.56</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>32</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>1.24</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.06</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.02</v>
+        <v>2.78</v>
       </c>
       <c r="W11" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB11" t="n">
         <v>990</v>
       </c>
       <c r="AC11" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>ES Ben Aknoun</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>2.78</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>2.96</v>
       </c>
       <c r="H2" t="n">
-        <v>1.07</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.09</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>2.06</v>
       </c>
       <c r="K2" t="n">
-        <v>18.5</v>
+        <v>2.12</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="R2" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.09</v>
+        <v>80</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="V2" t="n">
-        <v>12</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>2.62</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AH2" t="n">
-        <v>540</v>
+        <v>310</v>
       </c>
       <c r="AI2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AL2" t="n">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>2.36</v>
+        <v>5.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>1.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>7.2</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>2.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="X3" t="n">
-        <v>7.4</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>120</v>
-      </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.02</v>
+        <v>2.88</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.45</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>2.64</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>2.92</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.7</v>
       </c>
       <c r="P4" t="n">
-        <v>2.82</v>
+        <v>1.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>8.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.74</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>450</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.88</v>
+        <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>11.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
-        <v>2.94</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.43</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.46</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>9.4</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
         <v>10.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="X6" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>36</v>
-      </c>
       <c r="Z6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE6" t="n">
         <v>95</v>
       </c>
-      <c r="AA6" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>160</v>
-      </c>
       <c r="AF6" t="n">
-        <v>8.4</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>290</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.2</v>
+        <v>48</v>
       </c>
       <c r="AO6" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>1.46</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="P7" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>2.96</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>3.15</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>5.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>290</v>
       </c>
       <c r="AE7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>6.6</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>570</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.92</v>
+        <v>2.36</v>
       </c>
       <c r="U8" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.98</v>
+        <v>2.48</v>
       </c>
       <c r="X8" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.66</v>
+        <v>1.11</v>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="H9" t="n">
+        <v>36</v>
+      </c>
+      <c r="I9" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X9" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>510</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>7.2</v>
       </c>
-      <c r="I9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>2.66</v>
       </c>
       <c r="AO9" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,261 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Tlaxcala F.C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.11</v>
+        <v>5.8</v>
       </c>
       <c r="G10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.12</v>
       </c>
-      <c r="H10" t="n">
-        <v>34</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="X10" t="n">
-        <v>50</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AC10" t="n">
         <v>990</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
         <v>7.2</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tlaxcala F.C</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X11" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.78</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>170</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>1.15</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>1.22</v>
       </c>
       <c r="J2" t="n">
-        <v>2.06</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="O2" t="n">
-        <v>4.1</v>
+        <v>2.96</v>
       </c>
       <c r="P2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>850</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD2" t="n">
         <v>80</v>
       </c>
-      <c r="T2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>95</v>
-      </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AH2" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>590</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>1.42</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>1.17</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>1.32</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>11.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.64</v>
+        <v>6.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.92</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>1.39</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.25</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>8.6</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>4.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="n">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>2.86</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>2.94</v>
       </c>
       <c r="H5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>10.5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="Z5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB5" t="n">
         <v>11.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK5" t="n">
         <v>44</v>
       </c>
-      <c r="Z5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.7</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>230</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>1.46</v>
       </c>
       <c r="G6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.9</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="U6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.08</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>570</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN6" t="n">
         <v>13</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>48</v>
-      </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="G7" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>290</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>570</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.11</v>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>13.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>3.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.44</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>2.06</v>
       </c>
       <c r="T8" t="n">
-        <v>2.36</v>
+        <v>2.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>2.48</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>490</v>
       </c>
       <c r="AA8" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>30</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>2.64</v>
       </c>
       <c r="AO8" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,114 +1598,114 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Tlaxcala F.C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.11</v>
+        <v>5.8</v>
       </c>
       <c r="G9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.12</v>
       </c>
-      <c r="H9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I9" t="n">
-        <v>40</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="X9" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="Y9" t="n">
-        <v>120</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>510</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1714,144 +1714,9 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tlaxcala F.C</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X10" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
         <v>7.2</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>1.42</v>
       </c>
       <c r="G2" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="I2" t="n">
-        <v>1.22</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="O2" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.01</v>
       </c>
-      <c r="S2" t="n">
-        <v>100</v>
-      </c>
       <c r="T2" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.42</v>
+        <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
-        <v>1.17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>7.6</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="R3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S3" t="n">
+        <v>17</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.12</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>1.32</v>
+        <v>10.5</v>
       </c>
       <c r="H4" t="n">
-        <v>11.5</v>
+        <v>1.52</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>1.54</v>
       </c>
       <c r="J4" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>2.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>2.84</v>
       </c>
       <c r="W4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
         <v>4.2</v>
       </c>
-      <c r="X4" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>44</v>
-      </c>
       <c r="Z4" t="n">
-        <v>120</v>
+        <v>6.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>470</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>85</v>
+        <v>8.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.2</v>
+        <v>320</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.86</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>2.94</v>
+        <v>1.46</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.74</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.12</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>3.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC5" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="n">
+        <v>520</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
         <v>95</v>
       </c>
-      <c r="AF5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>290</v>
-      </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>600</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.46</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="X6" t="n">
         <v>11</v>
       </c>
-      <c r="I6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>570</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>790</v>
+        <v>220</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.64</v>
+        <v>1.1</v>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.11</v>
       </c>
       <c r="H7" t="n">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="I7" t="n">
+        <v>38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>480</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
         <v>7.4</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8</v>
-      </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>2.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,261 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Tlaxcala F.C</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.11</v>
+        <v>3.9</v>
       </c>
       <c r="G8" t="n">
-        <v>1.12</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
-        <v>36</v>
+        <v>1.67</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>1.99</v>
       </c>
       <c r="J8" t="n">
-        <v>13.5</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>14</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>8.199999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.06</v>
       </c>
-      <c r="T8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.49</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
       <c r="W8" t="n">
-        <v>9.800000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="Y8" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>990</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tlaxcala F.C</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>1.23</v>
+        <v>630</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>110</v>
       </c>
       <c r="K2" t="n">
-        <v>7.6</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>3.9</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>90</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.81</v>
+        <v>1.19</v>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>8.199999999999999</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>8.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1.76</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.24</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.22</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>330</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>5.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S3" t="n">
-        <v>17</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>75</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,666 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Tlaxcala F.C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>10.5</v>
+        <v>5.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="I4" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>2.84</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.3</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Algerian Ligue 1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MC Alger</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ES Setif</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>520</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AVS Futebol SAD</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H7" t="n">
-        <v>34</v>
-      </c>
-      <c r="I7" t="n">
-        <v>38</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>480</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tlaxcala F.C</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X8" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,93 +653,93 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Tlaxcala F.C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>630</v>
+        <v>1.71</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.79</v>
       </c>
       <c r="J2" t="n">
-        <v>110</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>120</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.48</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,292 +757,22 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.77</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>AVS Futebol SAD</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>32</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>330</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Tlaxcala F.C</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X4" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>130</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>690</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1.79</v>
+        <v>1.02</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>110</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>240</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>1.12</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>2.24</v>
+        <v>70</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -766,13 +766,13 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,141 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-29</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Tlaxcala F.C</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>130</v>
-      </c>
-      <c r="G2" t="n">
-        <v>690</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J2" t="n">
-        <v>110</v>
-      </c>
-      <c r="K2" t="n">
-        <v>240</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V2" t="n">
-        <v>70</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
